--- a/data/scheduling_DNN/predict/0.5/result21.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result21.xlsx
@@ -570,10 +570,10 @@
         <v>1.320313215255737</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8794439435005188</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4610361754894257</v>
+        <v>0.1943657100200653</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9480628967285156</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.5008329749107361</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1881282329559326</v>
+        <v>0.2000146061182022</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9402868747711182</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8611917495727539</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01867761090397835</v>
+        <v>0.006256038788706064</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8885459899902344</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.5164117813110352</v>
       </c>
       <c r="W5" t="n">
-        <v>0.139209508895874</v>
+        <v>0.1384838670492172</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8651819229125977</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.8610329031944275</v>
       </c>
       <c r="W6" t="n">
-        <v>0.006239850539714098</v>
+        <v>1.721436456136871e-05</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8659579753875732</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.862437903881073</v>
       </c>
       <c r="W7" t="n">
-        <v>0.006890455260872841</v>
+        <v>1.239090306626167e-05</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9259200096130371</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8658293485641479</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1136651262640953</v>
+        <v>0.003610887564718723</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8887121677398682</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8724150657653809</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1234344765543938</v>
+        <v>0.0002655955322552472</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8594357967376709</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.8657844662666321</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04267309606075287</v>
+        <v>4.030560376122594e-05</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8920040130615234</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.8684803247451782</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2929148375988007</v>
+        <v>0.0005533639341592789</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9354069232940674</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.3975664675235748</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3417974710464478</v>
+        <v>0.2892723977565765</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8890590667724609</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.3993993699550629</v>
       </c>
       <c r="W13" t="n">
-        <v>0.03943544626235962</v>
+        <v>0.2397666126489639</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9066929817199707</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.4102950990200043</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2080821394920349</v>
+        <v>0.2464108616113663</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9136340618133545</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.4214722812175751</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1487840712070465</v>
+        <v>0.2422232180833817</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9639661312103271</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.4121835827827454</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0792316347360611</v>
+        <v>0.3044639825820923</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8712770938873291</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8728420734405518</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1134354695677757</v>
+        <v>2.449161002004985e-06</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8624269962310791</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.8807225823402405</v>
       </c>
       <c r="W18" t="n">
-        <v>0.007300591096282005</v>
+        <v>0.0003347284800838679</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8537077903747559</v>
       </c>
       <c r="V19" t="n">
-        <v>0.656647801399231</v>
+        <v>0.4231871962547302</v>
       </c>
       <c r="W19" t="n">
-        <v>0.038832638412714</v>
+        <v>0.1853479892015457</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8648440837860107</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.4927116632461548</v>
       </c>
       <c r="W20" t="n">
-        <v>0.04495982825756073</v>
+        <v>0.138482540845871</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8697218894958496</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.8982238173484802</v>
       </c>
       <c r="W21" t="n">
-        <v>0.004072810523211956</v>
+        <v>0.0008123599109239876</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5253901481628418</v>
       </c>
       <c r="V22" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4879792034626007</v>
       </c>
       <c r="W22" t="n">
-        <v>0.003495318815112114</v>
+        <v>0.00139957875944674</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.537269115447998</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.8722432255744934</v>
       </c>
       <c r="W23" t="n">
-        <v>0.007494586054235697</v>
+        <v>0.1122076511383057</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5320188999176025</v>
       </c>
       <c r="V24" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4982261061668396</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0007669965270906687</v>
+        <v>0.001141952932812274</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5447978973388672</v>
       </c>
       <c r="V25" t="n">
-        <v>0.375304102897644</v>
+        <v>0.89983731508255</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02872814610600471</v>
+        <v>0.1260529905557632</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5264961719512939</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.4958021640777588</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01515981368720531</v>
+        <v>0.0009421221329830587</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5144679546356201</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.3992699980735779</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01229281164705753</v>
+        <v>0.01327056903392076</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5146501064300537</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.3972626328468323</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02059973403811455</v>
+        <v>0.01377981901168823</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5199549198150635</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.4225817918777466</v>
       </c>
       <c r="W29" t="n">
-        <v>0.07846695929765701</v>
+        <v>0.009481525979936123</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5482559204101562</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4232540726661682</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02090170606970787</v>
+        <v>0.01562546193599701</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.510612964630127</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8856807351112366</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0173988863825798</v>
+        <v>0.1406758278608322</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5222899913787842</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.3972204327583313</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0002271935809403658</v>
+        <v>0.01564239524304867</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5149788856506348</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.5152229070663452</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01240497548133135</v>
+        <v>5.954645132533187e-08</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5216069221496582</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.3992666304111481</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01817986741662025</v>
+        <v>0.01496714726090431</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5687751770019531</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.8701596856117249</v>
       </c>
       <c r="W35" t="n">
-        <v>0.002999948104843497</v>
+        <v>0.09083262085914612</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5152690410614014</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.4231628775596619</v>
       </c>
       <c r="W36" t="n">
-        <v>0.000681741104926914</v>
+        <v>0.008483544923365116</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5148558616638184</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.4983816146850586</v>
       </c>
       <c r="W37" t="n">
-        <v>8.280710608232766e-05</v>
+        <v>0.000271400815108791</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5134739875793457</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4989847242832184</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01902539283037186</v>
+        <v>0.0002099387493217364</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5125010013580322</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.5166151523590088</v>
       </c>
       <c r="W39" t="n">
-        <v>0.001215979107655585</v>
+        <v>1.692623845883645e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.513469934463501</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.8876813650131226</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01906806975603104</v>
+        <v>0.1400341987609863</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5368750095367432</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4047050476074219</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01780808344483376</v>
+        <v>0.0174688994884491</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4035530090332031</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.423099160194397</v>
       </c>
       <c r="W42" t="n">
-        <v>0.04187959060072899</v>
+        <v>0.0003820520360022783</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4097630977630615</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8991116285324097</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01621783338487148</v>
+        <v>0.2394619882106781</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.387645959854126</v>
       </c>
       <c r="V44" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.5079275369644165</v>
       </c>
       <c r="W44" t="n">
-        <v>0.1817850917577744</v>
+        <v>0.01446765754371881</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3861701488494873</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.8663612008094788</v>
       </c>
       <c r="W45" t="n">
-        <v>0.001252651796676219</v>
+        <v>0.230583444237709</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3872168064117432</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4232398569583893</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1804214417934418</v>
+        <v>0.001297660171985626</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4248640537261963</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.491439163684845</v>
       </c>
       <c r="W47" t="n">
-        <v>0.008039779029786587</v>
+        <v>0.004432245157659054</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3907711505889893</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4112812280654907</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01300898659974337</v>
+        <v>0.0004206632729619741</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3862900733947754</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4886528551578522</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03084944747388363</v>
+        <v>0.01047813892364502</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3842730522155762</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.4034134149551392</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1813038885593414</v>
+        <v>0.0003663534880615771</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3844549655914307</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.4224714040756226</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01717411540448666</v>
+        <v>0.001445249537937343</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3946700096130371</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4867822825908661</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1513481289148331</v>
+        <v>0.008484670892357826</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.439457893371582</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.3972001671791077</v>
       </c>
       <c r="W53" t="n">
-        <v>0.00786362960934639</v>
+        <v>0.00178571545984596</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3857290744781494</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8792752623558044</v>
       </c>
       <c r="W54" t="n">
-        <v>0.03655347973108292</v>
+        <v>0.2435878366231918</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.388840913772583</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4941023290157318</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01334642712026834</v>
+        <v>0.01107996515929699</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3869469165802002</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4991566240787506</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01352621335536242</v>
+        <v>0.01259101834148169</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3809330463409424</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4035649597644806</v>
       </c>
       <c r="W57" t="n">
-        <v>1.018897766158489e-08</v>
+        <v>0.0005122034926898777</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3840928077697754</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8611101508140564</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01356770005077124</v>
+        <v>0.2275455445051193</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3877999782562256</v>
       </c>
       <c r="V59" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8511577844619751</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1565666794776917</v>
+        <v>0.21470046043396</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865070343017578</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.3972529470920563</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0001254068629350513</v>
+        <v>0.0001154746423708275</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3878018856048584</v>
       </c>
       <c r="V61" t="n">
-        <v>0.946087121963501</v>
+        <v>0.4890616238117218</v>
       </c>
       <c r="W61" t="n">
-        <v>0.311682403087616</v>
+        <v>0.01025353465229273</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8705651760101318</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.8683806657791138</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2706016004085541</v>
+        <v>4.772085048898589e-06</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9104259014129639</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.8797191977500916</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1126557812094688</v>
+        <v>0.0009429016499780118</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9168860912322998</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.525934100151062</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2637056708335876</v>
+        <v>0.1528434604406357</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8793699741363525</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.8711325526237488</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2263064980506897</v>
+        <v>6.785511504858732e-05</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8733141422271729</v>
       </c>
       <c r="V66" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8762103915214539</v>
       </c>
       <c r="W66" t="n">
-        <v>0.0405195876955986</v>
+        <v>8.388259630009998e-06</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8648488521575928</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.874531090259552</v>
       </c>
       <c r="W67" t="n">
-        <v>0.07633434981107712</v>
+        <v>9.374573710374534e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9365630149841309</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.401066780090332</v>
       </c>
       <c r="W68" t="n">
-        <v>0.05725508183240891</v>
+        <v>0.2867562174797058</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8779940605163574</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.3977628350257874</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1160255074501038</v>
+        <v>0.2306220233440399</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8750770092010498</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4045579135417938</v>
       </c>
       <c r="W70" t="n">
-        <v>0.004445008002221584</v>
+        <v>0.2213882207870483</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8737468719482422</v>
       </c>
       <c r="V71" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.4921651780605316</v>
       </c>
       <c r="W71" t="n">
-        <v>0.002826905809342861</v>
+        <v>0.145604595541954</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9462640285491943</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5160099864006042</v>
       </c>
       <c r="W72" t="n">
-        <v>0.09217140823602676</v>
+        <v>0.1851185411214828</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8799328804016113</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4036991894245148</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2269044816493988</v>
+        <v>0.2267985343933105</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8752808570861816</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.5009218454360962</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1305915266275406</v>
+        <v>0.1401446759700775</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8798909187316895</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5164633989334106</v>
       </c>
       <c r="W75" t="n">
-        <v>0.05130572244524956</v>
+        <v>0.1320795565843582</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9376809597015381</v>
       </c>
       <c r="V76" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.5091204643249512</v>
       </c>
       <c r="W76" t="n">
-        <v>0.3098367154598236</v>
+        <v>0.1836640983819962</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8895959854125977</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8975805044174194</v>
       </c>
       <c r="W77" t="n">
-        <v>0.03656629100441933</v>
+        <v>6.375254451995715e-05</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8600931167602539</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.8728301525115967</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08958845585584641</v>
+        <v>0.0001622320851311088</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.858795166015625</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4946745634078979</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1666504442691803</v>
+        <v>0.132583811879158</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9251949787139893</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.506941020488739</v>
       </c>
       <c r="W80" t="n">
-        <v>0.3074658811092377</v>
+        <v>0.17493636906147</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8915979862213135</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4101415276527405</v>
       </c>
       <c r="W81" t="n">
-        <v>0.12267005443573</v>
+        <v>0.2318003177642822</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5489029884338379</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4948672652244568</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01810305379331112</v>
+        <v>0.002919859485700727</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5433211326599121</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.4010163247585297</v>
       </c>
       <c r="W83" t="n">
-        <v>3.781706936933915e-06</v>
+        <v>0.02025065757334232</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5219459533691406</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4046501219272614</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01979106850922108</v>
+        <v>0.01375831197947264</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.543834924697876</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4993874430656433</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001763939508236945</v>
+        <v>0.001975578721612692</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5441179275512695</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4959370493888855</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01222990639507771</v>
+        <v>0.002321396954357624</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5501248836517334</v>
       </c>
       <c r="V87" t="n">
-        <v>0.514431357383728</v>
+        <v>0.4033614993095398</v>
       </c>
       <c r="W87" t="n">
-        <v>0.001274027861654758</v>
+        <v>0.02153949066996574</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.524785041809082</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8691205382347107</v>
       </c>
       <c r="W88" t="n">
-        <v>0.0006518712034448981</v>
+        <v>0.1185669377446175</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5205450057983398</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.4037638902664185</v>
       </c>
       <c r="W89" t="n">
-        <v>0.004883153364062309</v>
+        <v>0.01363782864063978</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5185980796813965</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.3972389101982117</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02689096704125404</v>
+        <v>0.01472804788500071</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5435779094696045</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.5161867141723633</v>
       </c>
       <c r="W91" t="n">
-        <v>0.004179214127361774</v>
+        <v>0.0007502775988541543</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5199708938598633</v>
       </c>
       <c r="V92" t="n">
-        <v>0.350296825170517</v>
+        <v>0.409709095954895</v>
       </c>
       <c r="W92" t="n">
-        <v>0.02878928929567337</v>
+        <v>0.01215766370296478</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5197699069976807</v>
       </c>
       <c r="V93" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4990707635879517</v>
       </c>
       <c r="W93" t="n">
-        <v>0.02866781502962112</v>
+        <v>0.0004284545429982245</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5392677783966064</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4914149641990662</v>
       </c>
       <c r="W94" t="n">
-        <v>2.330014649487566e-05</v>
+        <v>0.002289891941472888</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5890130996704102</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.8656295537948608</v>
       </c>
       <c r="W95" t="n">
-        <v>0.03435772657394409</v>
+        <v>0.07651666551828384</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5206778049468994</v>
       </c>
       <c r="V96" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4870565235614777</v>
       </c>
       <c r="W96" t="n">
-        <v>3.73781549569685e-05</v>
+        <v>0.001130390563048422</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5191349983215332</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4032917618751526</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01505001913756132</v>
+        <v>0.01341965515166521</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5156140327453613</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4029269814491272</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01253458019345999</v>
+        <v>0.01269837189465761</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.517219066619873</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.8861919045448303</v>
       </c>
       <c r="W99" t="n">
-        <v>0.001553934765979648</v>
+        <v>0.1361409574747086</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.572037935256958</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8729490041732788</v>
       </c>
       <c r="W100" t="n">
-        <v>0.05656709894537926</v>
+        <v>0.09054747223854065</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5207071304321289</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4954189658164978</v>
       </c>
       <c r="W101" t="n">
-        <v>0.08217515796422958</v>
+        <v>0.0006394912488758564</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4162211418151855</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.397246778011322</v>
       </c>
       <c r="W102" t="n">
-        <v>0.05161741748452187</v>
+        <v>0.0003600264899432659</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4049570560455322</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.5163716077804565</v>
       </c>
       <c r="W103" t="n">
-        <v>0.01859204657375813</v>
+        <v>0.0124132027849555</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4108641147613525</v>
       </c>
       <c r="V104" t="n">
-        <v>0.350784033536911</v>
+        <v>0.397250235080719</v>
       </c>
       <c r="W104" t="n">
-        <v>0.00360961607657373</v>
+        <v>0.0001853377179941162</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4357230663299561</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.3975504636764526</v>
       </c>
       <c r="W105" t="n">
-        <v>0.001032609026879072</v>
+        <v>0.001457147649489343</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.5688118934631348</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.8661131858825684</v>
       </c>
       <c r="W106" t="n">
-        <v>0.004491033032536507</v>
+        <v>0.08838805556297302</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4149539470672607</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.4110791385173798</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01592928916215897</v>
+        <v>1.501414135418599e-05</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.4189770221710205</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.8725541830062866</v>
       </c>
       <c r="W108" t="n">
-        <v>0.007281820755451918</v>
+        <v>0.2057322412729263</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3963029384613037</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.4034321010112762</v>
       </c>
       <c r="W109" t="n">
-        <v>0.06683690845966339</v>
+        <v>5.08249577251263e-05</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4038569927215576</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.8788796663284302</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0007981893140822649</v>
+        <v>0.2256465405225754</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3892538547515869</v>
       </c>
       <c r="V111" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.898062527179718</v>
       </c>
       <c r="W111" t="n">
-        <v>0.001480977516621351</v>
+        <v>0.2588862776756287</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4612789154052734</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.5095183849334717</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01220834162086248</v>
+        <v>0.002327046357095242</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3899929523468018</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4983130991458893</v>
       </c>
       <c r="W113" t="n">
-        <v>0.005811597220599651</v>
+        <v>0.01173325441777706</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3886339664459229</v>
       </c>
       <c r="V114" t="n">
-        <v>0.944080114364624</v>
+        <v>0.4960809350013733</v>
       </c>
       <c r="W114" t="n">
-        <v>0.3085204362869263</v>
+        <v>0.01154485065490007</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3878910541534424</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.3992465138435364</v>
       </c>
       <c r="W115" t="n">
-        <v>0.02362859807908535</v>
+        <v>0.0001289464707951993</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3904519081115723</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.4924834966659546</v>
       </c>
       <c r="W116" t="n">
-        <v>0.003612041007727385</v>
+        <v>0.01041044481098652</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3936910629272461</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.3992693424224854</v>
       </c>
       <c r="W117" t="n">
-        <v>0.007080628536641598</v>
+        <v>3.111720070592128e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4031960964202881</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.3972391784191132</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0005527387256734073</v>
+        <v>3.548487075022422e-05</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4016890525817871</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4216680526733398</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01291013695299625</v>
+        <v>0.0003991604316979647</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3911011219024658</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.4972497522830963</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0001561208337079734</v>
+        <v>0.0112675316631794</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3867089748382568</v>
       </c>
       <c r="V121" t="n">
-        <v>0.514474630355835</v>
+        <v>0.4943897724151611</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01632406190037727</v>
+        <v>0.01159515418112278</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8612039089202881</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.8725448846817017</v>
       </c>
       <c r="W122" t="n">
-        <v>0.04352770745754242</v>
+        <v>0.0001286177284782752</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.939953088760376</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.5078343749046326</v>
       </c>
       <c r="W123" t="n">
-        <v>0.05897071212530136</v>
+        <v>0.1867265850305557</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8658590316772461</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.4230861663818359</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1113237515091896</v>
+        <v>0.1960478127002716</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.864469051361084</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4958377480506897</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2126243263483047</v>
+        <v>0.1358890384435654</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8848268985748291</v>
       </c>
       <c r="V126" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8727610111236572</v>
       </c>
       <c r="W126" t="n">
-        <v>0.01055676676332951</v>
+        <v>0.0001455856399843469</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8893630504608154</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.4023896455764771</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1485686749219894</v>
+        <v>0.2371430993080139</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.853477954864502</v>
       </c>
       <c r="V128" t="n">
-        <v>0.65655517578125</v>
+        <v>0.863201379776001</v>
       </c>
       <c r="W128" t="n">
-        <v>0.03877858072519302</v>
+        <v>9.454499377170578e-05</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8523430824279785</v>
       </c>
       <c r="V129" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.5161256790161133</v>
       </c>
       <c r="W129" t="n">
-        <v>0.009129654616117477</v>
+        <v>0.1130421459674835</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8554348945617676</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.3972452878952026</v>
       </c>
       <c r="W130" t="n">
-        <v>0.03361388668417931</v>
+        <v>0.20993772149086</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9184160232543945</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.8853150606155396</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1475801765918732</v>
+        <v>0.001095673767849803</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.876964807510376</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.493137001991272</v>
       </c>
       <c r="W132" t="n">
-        <v>0.0486750416457653</v>
+        <v>0.1473237872123718</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8961479663848877</v>
       </c>
       <c r="V133" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.5157670974731445</v>
       </c>
       <c r="W133" t="n">
-        <v>0.01283850334584713</v>
+        <v>0.144689604640007</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8589770793914795</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.4924600124359131</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1192080229520798</v>
+        <v>0.1343347579240799</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9250719547271729</v>
       </c>
       <c r="V135" t="n">
-        <v>0.654166579246521</v>
+        <v>0.4994183480739594</v>
       </c>
       <c r="W135" t="n">
-        <v>0.07338972389698029</v>
+        <v>0.1811809986829758</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8631088733673096</v>
       </c>
       <c r="V136" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.5136469602584839</v>
       </c>
       <c r="W136" t="n">
-        <v>0.00691545382142067</v>
+        <v>0.1221236288547516</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8632228374481201</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5163829922676086</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2625953257083893</v>
+        <v>0.1202978789806366</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8622260093688965</v>
       </c>
       <c r="V138" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.3972137868404388</v>
       </c>
       <c r="W138" t="n">
-        <v>0.006152152549475431</v>
+        <v>0.2162363678216934</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.913905143737793</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.5154236555099487</v>
       </c>
       <c r="W139" t="n">
-        <v>0.0535041019320488</v>
+        <v>0.1587875038385391</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8606901168823242</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.8729311227798462</v>
       </c>
       <c r="W140" t="n">
-        <v>0.08981938660144806</v>
+        <v>0.0001498422207077965</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8599128723144531</v>
       </c>
       <c r="V141" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.5162589550018311</v>
       </c>
       <c r="W141" t="n">
-        <v>0.005885354708880186</v>
+        <v>0.1180980131030083</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5233139991760254</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.4019053876399994</v>
       </c>
       <c r="W142" t="n">
-        <v>0.1756507456302643</v>
+        <v>0.01474005077034235</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5145010948181152</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4045411348342896</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01913532428443432</v>
+        <v>0.01209119241684675</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5724599361419678</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8726909756660461</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02848884090781212</v>
+        <v>0.09013867378234863</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.6179180145263672</v>
       </c>
       <c r="V145" t="n">
-        <v>0.54131019115448</v>
+        <v>0.4034929871559143</v>
       </c>
       <c r="W145" t="n">
-        <v>0.005868758540600538</v>
+        <v>0.04597809165716171</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5191648006439209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.5008842349052429</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01342781167477369</v>
+        <v>0.0003341790870763361</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5354290008544922</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.4037009179592133</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0006332813063636422</v>
+        <v>0.01735228858888149</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5162591934204102</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.8569572567939758</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0001456676400266588</v>
+        <v>0.1160751730203629</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5723109245300293</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.8647661805152893</v>
       </c>
       <c r="W149" t="n">
-        <v>0.001037153415381908</v>
+        <v>0.08553007990121841</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5191628932952881</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.397548496723175</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0002978278789669275</v>
+        <v>0.01479006186127663</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5152499675750732</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.412104457616806</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0004745455808006227</v>
+        <v>0.01063899602741003</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5122280120849609</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8600330948829651</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01717729493975639</v>
+        <v>0.1209683790802956</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5145509243011475</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.4045397341251373</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01229366473853588</v>
+        <v>0.01210246235132217</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5131349563598633</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8691725134849548</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01204469706863165</v>
+        <v>0.1267627477645874</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5180058479309082</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8691343665122986</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02741500176489353</v>
+        <v>0.1232912391424179</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5189788341522217</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.5030008554458618</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01330772787332535</v>
+        <v>0.000255295803071931</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5200119018554688</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4300120174884796</v>
       </c>
       <c r="W157" t="n">
-        <v>0.01517978217452765</v>
+        <v>0.008099978789687157</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5203220844268799</v>
       </c>
       <c r="V158" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.4989944994449615</v>
       </c>
       <c r="W158" t="n">
-        <v>0.1782147586345673</v>
+        <v>0.0004548658907879144</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5156018733978271</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4894052743911743</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0001478105987189338</v>
+        <v>0.0006862618029117584</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5784480571746826</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8664634823799133</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0003173230506945401</v>
+        <v>0.08295288681983948</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5193929672241211</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4873864948749542</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01740906946361065</v>
+        <v>0.001024414319545031</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3880209922790527</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8686923980712891</v>
       </c>
       <c r="W162" t="n">
-        <v>0.08068229258060455</v>
+        <v>0.2310450077056885</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3855900764465332</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4045346975326538</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01661878824234009</v>
+        <v>0.0003588986583054066</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3915259838104248</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4026794731616974</v>
       </c>
       <c r="W164" t="n">
-        <v>0.005590134300291538</v>
+        <v>0.0001244003215106204</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3899750709533691</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.867659330368042</v>
       </c>
       <c r="W165" t="n">
-        <v>0.02292678877711296</v>
+        <v>0.2281822562217712</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4230360984802246</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.5170122385025024</v>
       </c>
       <c r="W166" t="n">
-        <v>0.002303454326465726</v>
+        <v>0.008831514976918697</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3927850723266602</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.3972384035587311</v>
       </c>
       <c r="W167" t="n">
-        <v>0.07234518975019455</v>
+        <v>1.983215952350292e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3920869827270508</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.8601940274238586</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01845388114452362</v>
+        <v>0.2191241979598999</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3989369869232178</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.8572207689285278</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0171495508402586</v>
+        <v>0.2100240290164948</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3898389339447021</v>
       </c>
       <c r="V170" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4968980252742767</v>
       </c>
       <c r="W170" t="n">
-        <v>0.1554238796234131</v>
+        <v>0.01146164909005165</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.389613151550293</v>
       </c>
       <c r="V171" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.8978424072265625</v>
       </c>
       <c r="W171" t="n">
-        <v>0.3098702728748322</v>
+        <v>0.2582969665527344</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3911490440368652</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.8850770592689514</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01294825319200754</v>
+        <v>0.2439648807048798</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3930819034576416</v>
       </c>
       <c r="V173" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5400823354721069</v>
       </c>
       <c r="W173" t="n">
-        <v>0.06859157979488373</v>
+        <v>0.02160912752151489</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3998050689697266</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.5090609788894653</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01817278005182743</v>
+        <v>0.01193685363978148</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.392941951751709</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8720377087593079</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001778627163730562</v>
+        <v>0.2295327484607697</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3921229839324951</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4110676646232605</v>
       </c>
       <c r="W176" t="n">
-        <v>0.007309939246624708</v>
+        <v>0.0003589009284041822</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.408768892288208</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.5069378614425659</v>
       </c>
       <c r="W177" t="n">
-        <v>0.07494620978832245</v>
+        <v>0.009637146256864071</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3911168575286865</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.4882321059703827</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01504612900316715</v>
+        <v>0.009431371465325356</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4370520114898682</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.8673145174980164</v>
       </c>
       <c r="W179" t="n">
-        <v>0.001690446981228888</v>
+        <v>0.1851258277893066</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3901550769805908</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.8711236119270325</v>
       </c>
       <c r="W180" t="n">
-        <v>0.06335585564374924</v>
+        <v>0.2313307374715805</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.400831937789917</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.5265517234802246</v>
       </c>
       <c r="W181" t="n">
-        <v>0.02583861723542213</v>
+        <v>0.01580546423792839</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.880457878112793</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.496717780828476</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1149764060974121</v>
+        <v>0.147256463766098</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9463739395141602</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4938367009162903</v>
       </c>
       <c r="W183" t="n">
-        <v>0.06960932165384293</v>
+        <v>0.2047899514436722</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8893389701843262</v>
       </c>
       <c r="V184" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8981872200965881</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1210488677024841</v>
+        <v>7.829152309568599e-05</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8857569694519043</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.5401922464370728</v>
       </c>
       <c r="W185" t="n">
-        <v>0.05987485870718956</v>
+        <v>0.1194149777293205</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8661730289459229</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8735010027885437</v>
       </c>
       <c r="W186" t="n">
-        <v>0.05022107437252998</v>
+        <v>5.369920108933002e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8864290714263916</v>
       </c>
       <c r="V187" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.8907862901687622</v>
       </c>
       <c r="W187" t="n">
-        <v>0.003137414809316397</v>
+        <v>1.89853544725338e-05</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8661701679229736</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4963678419589996</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1317567825317383</v>
+        <v>0.1367537677288055</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8734450340270996</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4022798836231232</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1287783682346344</v>
+        <v>0.2219966053962708</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8672969341278076</v>
       </c>
       <c r="V190" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8689173460006714</v>
       </c>
       <c r="W190" t="n">
-        <v>0.007103824056684971</v>
+        <v>2.625734623507014e-06</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8898499011993408</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.4046822190284729</v>
       </c>
       <c r="W191" t="n">
-        <v>0.236433744430542</v>
+        <v>0.2353876829147339</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8634569644927979</v>
       </c>
       <c r="V192" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.4222510755062103</v>
       </c>
       <c r="W192" t="n">
-        <v>0.006259433459490538</v>
+        <v>0.1946626305580139</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.861767053604126</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.8649053573608398</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1210660338401794</v>
+        <v>9.848950867308304e-06</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8580460548400879</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4061264395713806</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1186074912548065</v>
+        <v>0.2042313367128372</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8613929748535156</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.8912712335586548</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2308744788169861</v>
+        <v>0.0008927103481255472</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8621129989624023</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.878576397895813</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1289049386978149</v>
+        <v>0.0002710435073822737</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8737771511077881</v>
       </c>
       <c r="V197" t="n">
-        <v>0.782903790473938</v>
+        <v>0.866898775100708</v>
       </c>
       <c r="W197" t="n">
-        <v>0.008257967419922352</v>
+        <v>4.73120562674012e-05</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.87965989112854</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.397243320941925</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2427821755409241</v>
+        <v>0.2327257543802261</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8568170070648193</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.3992248177528381</v>
       </c>
       <c r="W199" t="n">
-        <v>0.2560677230358124</v>
+        <v>0.2093906104564667</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8587801456451416</v>
       </c>
       <c r="V200" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.5079658627510071</v>
       </c>
       <c r="W200" t="n">
-        <v>0.005665760952979326</v>
+        <v>0.123070664703846</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8771359920501709</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.5014988780021667</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1401044130325317</v>
+        <v>0.1411032378673553</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5175518989562988</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8630064725875854</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01298546139150858</v>
+        <v>0.1193388625979424</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5156941413879395</v>
       </c>
       <c r="V203" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.3972663283348083</v>
       </c>
       <c r="W203" t="n">
-        <v>0.189887210726738</v>
+        <v>0.01402514707297087</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5765178203582764</v>
       </c>
       <c r="V204" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.397261917591095</v>
       </c>
       <c r="W204" t="n">
-        <v>0.05469429865479469</v>
+        <v>0.03213267773389816</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.51792311668396</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.3972097635269165</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01873901672661304</v>
+        <v>0.01457171328365803</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5236899852752686</v>
       </c>
       <c r="V206" t="n">
-        <v>0.654965877532959</v>
+        <v>0.5164197087287903</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01723336055874825</v>
+        <v>5.285692168399692e-05</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173408985137939</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.4185508489608765</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0002866425202228129</v>
+        <v>0.009759473614394665</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5160160064697266</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.3972271084785461</v>
       </c>
       <c r="W208" t="n">
-        <v>4.815934971702518e-06</v>
+        <v>0.0141108026728034</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5155730247497559</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.5166087746620178</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01994499936699867</v>
+        <v>1.07277787719795e-06</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5194242000579834</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.3975323438644409</v>
       </c>
       <c r="W210" t="n">
-        <v>2.843014954123646e-05</v>
+        <v>0.01485762465745211</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5208828449249268</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4220153093338013</v>
       </c>
       <c r="W211" t="n">
-        <v>4.533249011728913e-05</v>
+        <v>0.009774789214134216</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5191650390625</v>
       </c>
       <c r="V212" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8755105137825012</v>
       </c>
       <c r="W212" t="n">
-        <v>0.08800924569368362</v>
+        <v>0.1269820928573608</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5191090106964111</v>
       </c>
       <c r="V213" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.3992620408535004</v>
       </c>
       <c r="W213" t="n">
-        <v>0.08290567994117737</v>
+        <v>0.01436329632997513</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5203869342803955</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8835247159004211</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02028435468673706</v>
+        <v>0.1318690478801727</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5787408351898193</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.5079065561294556</v>
       </c>
       <c r="W215" t="n">
-        <v>0.03907296434044838</v>
+        <v>0.00501749524846673</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5214829444885254</v>
       </c>
       <c r="V216" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4098961055278778</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01999088563024998</v>
+        <v>0.01245162263512611</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5210578441619873</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.4949840903282166</v>
       </c>
       <c r="W217" t="n">
-        <v>0.02122250944375992</v>
+        <v>0.0006798406247980893</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5345721244812012</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.8677255511283875</v>
       </c>
       <c r="W218" t="n">
-        <v>4.486392754188273e-06</v>
+        <v>0.1109912022948265</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5287280082702637</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.4845917224884033</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0316668376326561</v>
+        <v>0.001948011689819396</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5318179130554199</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.4099308848381042</v>
       </c>
       <c r="W220" t="n">
-        <v>0.006957953330129385</v>
+        <v>0.01485644746571779</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.613286018371582</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.8978710770606995</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01286216545850039</v>
+        <v>0.08098865300416946</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4005370140075684</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.4218243360519409</v>
       </c>
       <c r="W222" t="n">
-        <v>0.002298422390595078</v>
+        <v>0.0004531500744633377</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4276919364929199</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4036070108413696</v>
       </c>
       <c r="W223" t="n">
-        <v>0.06906689703464508</v>
+        <v>0.0005800836370326579</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.5735759735107422</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.5162449479103088</v>
       </c>
       <c r="W224" t="n">
-        <v>0.04114386066794395</v>
+        <v>0.003286846447736025</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3975739479064941</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8730036616325378</v>
       </c>
       <c r="W225" t="n">
-        <v>0.00281866267323494</v>
+        <v>0.2260334193706512</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4543590545654297</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.5161781311035156</v>
       </c>
       <c r="W226" t="n">
-        <v>0.0409712977707386</v>
+        <v>0.003821598133072257</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4026000499725342</v>
       </c>
       <c r="V227" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.4035012125968933</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1621496826410294</v>
+        <v>8.120940719891223e-07</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4013841152191162</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8788594603538513</v>
       </c>
       <c r="W228" t="n">
-        <v>0.00256082066334784</v>
+        <v>0.2279826998710632</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4113330841064453</v>
       </c>
       <c r="V229" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.3992236852645874</v>
       </c>
       <c r="W229" t="n">
-        <v>0.003666223725304008</v>
+        <v>0.0001466375397285447</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4455850124359131</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8756512403488159</v>
       </c>
       <c r="W230" t="n">
-        <v>0.001760714221745729</v>
+        <v>0.184956967830658</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4383938312530518</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.516004204750061</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0001008024992188439</v>
+        <v>0.006023370195180178</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.7085180282592773</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4222995042800903</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1267994791269302</v>
+        <v>0.0819210410118103</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4016189575195312</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.397251307964325</v>
       </c>
       <c r="W233" t="n">
-        <v>0.002618859056383371</v>
+        <v>1.907636215037201e-05</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4007408618927002</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8855176568031311</v>
       </c>
       <c r="W234" t="n">
-        <v>8.447576874459628e-06</v>
+        <v>0.2350085377693176</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4051048755645752</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4111022055149078</v>
       </c>
       <c r="W235" t="n">
-        <v>0.009794482029974461</v>
+        <v>3.596796523197554e-05</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4086101055145264</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.862065851688385</v>
       </c>
       <c r="W236" t="n">
-        <v>0.08348071575164795</v>
+        <v>0.2056221067905426</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4528059959411621</v>
       </c>
       <c r="V237" t="n">
-        <v>0.381181538105011</v>
+        <v>0.499222993850708</v>
       </c>
       <c r="W237" t="n">
-        <v>0.005130062811076641</v>
+        <v>0.00215453770942986</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.446627140045166</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.498309850692749</v>
       </c>
       <c r="W238" t="n">
-        <v>0.009025118313729763</v>
+        <v>0.002671102527529001</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4021868705749512</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.5164363980293274</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0104041937738657</v>
+        <v>0.01305295433849096</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4025900363922119</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8698009848594666</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01238646730780602</v>
+        <v>0.2182860672473907</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4320521354675293</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.868657648563385</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1355290710926056</v>
+        <v>0.1906243711709976</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>1.019592046737671</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8672205805778503</v>
       </c>
       <c r="W242" t="n">
-        <v>0.4473050832748413</v>
+        <v>0.02321706339716911</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.006960153579712</v>
       </c>
       <c r="V243" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.5162983536720276</v>
       </c>
       <c r="W243" t="n">
-        <v>0.03959478437900543</v>
+        <v>0.2407490015029907</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9398589134216309</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.8687435984611511</v>
       </c>
       <c r="W244" t="n">
-        <v>0.3451181352138519</v>
+        <v>0.005057387985289097</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8813791275024414</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.4241317808628082</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2282875031232834</v>
+        <v>0.2090751379728317</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9293780326843262</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.4010651409626007</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1819934397935867</v>
+        <v>0.2791145443916321</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9588899612426758</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.4034531116485596</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1371529400348663</v>
+        <v>0.3085100948810577</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9625890254974365</v>
       </c>
       <c r="V248" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.5394229292869568</v>
       </c>
       <c r="W248" t="n">
-        <v>0.03215308859944344</v>
+        <v>0.1790695488452911</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9154870510101318</v>
       </c>
       <c r="V249" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.8611488938331604</v>
       </c>
       <c r="W249" t="n">
-        <v>0.01758552901446819</v>
+        <v>0.002952635288238525</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9801919460296631</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.3992214202880859</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1137244552373886</v>
+        <v>0.3375267386436462</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.872157096862793</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8787022829055786</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1556916385889053</v>
+        <v>4.283945963834412e-05</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8728799819946289</v>
       </c>
       <c r="V252" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.3972298204898834</v>
       </c>
       <c r="W252" t="n">
-        <v>0.008088615722954273</v>
+        <v>0.2262430787086487</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8638460636138916</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.403425395488739</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2431960105895996</v>
+        <v>0.2119871973991394</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9193229675292969</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.4117879569530487</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1178020909428596</v>
+        <v>0.2575917541980743</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8698580265045166</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.4961589574813843</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2694341838359833</v>
+        <v>0.1396510004997253</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8789539337158203</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.4114744961261749</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1328746676445007</v>
+        <v>0.2185370177030563</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8937430381774902</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8966558575630188</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1311433464288712</v>
+        <v>8.484516911266837e-06</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9181449413299561</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8691968321800232</v>
       </c>
       <c r="W258" t="n">
-        <v>0.04839172586798668</v>
+        <v>0.002395917428657413</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8657140731811523</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4985024929046631</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1077545881271362</v>
+        <v>0.1348443478345871</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8653199672698975</v>
       </c>
       <c r="V260" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4933265149593353</v>
       </c>
       <c r="W260" t="n">
-        <v>0.003298030234873295</v>
+        <v>0.1383791267871857</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8628759384155273</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.8700326681137085</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2112843543291092</v>
+        <v>5.12187798449304e-05</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5724320411682129</v>
       </c>
       <c r="V262" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.5461885929107666</v>
       </c>
       <c r="W262" t="n">
-        <v>0.1380352973937988</v>
+        <v>0.0006887185736559331</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5396618843078613</v>
       </c>
       <c r="V263" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4034435153007507</v>
       </c>
       <c r="W263" t="n">
-        <v>0.07248563319444656</v>
+        <v>0.01855544373393059</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5234329700469971</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4967537522315979</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0003688539145514369</v>
+        <v>0.0007117806817404926</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5247159004211426</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.5163445472717285</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01693535037338734</v>
+        <v>7.007954991422594e-05</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5186638832092285</v>
       </c>
       <c r="V266" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5163880586624146</v>
       </c>
       <c r="W266" t="n">
-        <v>0.08494075387716293</v>
+        <v>5.179377239983296e-06</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.532249927520752</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.9043460488319397</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01504294108599424</v>
+        <v>0.1384555250406265</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5227878093719482</v>
       </c>
       <c r="V268" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4959346950054169</v>
       </c>
       <c r="W268" t="n">
-        <v>0.179257407784462</v>
+        <v>0.0007210897747427225</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5436849594116211</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.8873707056045532</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01959913596510887</v>
+        <v>0.1181198954582214</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5191640853881836</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.497251957654953</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0003248612629249692</v>
+        <v>0.0004801413451787084</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5202240943908691</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.3975606858730316</v>
       </c>
       <c r="W271" t="n">
-        <v>0.02887588366866112</v>
+        <v>0.01504631154239178</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5512290000915527</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8738548755645752</v>
       </c>
       <c r="W272" t="n">
-        <v>0.002241767477244139</v>
+        <v>0.1040874570608139</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5764110088348389</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.39772629737854</v>
       </c>
       <c r="W273" t="n">
-        <v>0.006034811027348042</v>
+        <v>0.03192822635173798</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5385720729827881</v>
       </c>
       <c r="V274" t="n">
-        <v>0.672245979309082</v>
+        <v>0.8807266354560852</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01786871254444122</v>
+        <v>0.1170697435736656</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5187561511993408</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.878753125667572</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01520605385303497</v>
+        <v>0.1295978277921677</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5212678909301758</v>
       </c>
       <c r="V276" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.5163916945457458</v>
       </c>
       <c r="W276" t="n">
-        <v>0.06898152083158493</v>
+        <v>2.377729106228799e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5240488052368164</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.4033623933792114</v>
       </c>
       <c r="W277" t="n">
-        <v>0.000300586863886565</v>
+        <v>0.01456520985811949</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5232081413269043</v>
       </c>
       <c r="V278" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8999482989311218</v>
       </c>
       <c r="W278" t="n">
-        <v>6.955362914595753e-05</v>
+        <v>0.1419331431388855</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5257589817047119</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.872758150100708</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0001441565545974299</v>
+        <v>0.1204084232449532</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5247311592102051</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.4114646017551422</v>
       </c>
       <c r="W280" t="n">
-        <v>0.005701205693185329</v>
+        <v>0.01282931305468082</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5191700458526611</v>
       </c>
       <c r="V281" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.3972398340702057</v>
       </c>
       <c r="W281" t="n">
-        <v>0.1836098432540894</v>
+        <v>0.0148669769987464</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.405430793762207</v>
       </c>
       <c r="V282" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.48713219165802</v>
       </c>
       <c r="W282" t="n">
-        <v>0.1686273664236069</v>
+        <v>0.006675118580460548</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3967528343200684</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.8702163100242615</v>
       </c>
       <c r="W283" t="n">
-        <v>4.836453081225045e-05</v>
+        <v>0.2241676598787308</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4376189708709717</v>
       </c>
       <c r="V284" t="n">
-        <v>0.534324586391449</v>
+        <v>0.8983553051948547</v>
       </c>
       <c r="W284" t="n">
-        <v>0.009351976215839386</v>
+        <v>0.212277963757515</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3993549346923828</v>
       </c>
       <c r="V285" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.3972375094890594</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0005562026053667068</v>
+        <v>4.483489647100214e-06</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4000241756439209</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.885096549987793</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0741141214966774</v>
+        <v>0.2352952063083649</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3987021446228027</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5163119435310364</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01664046384394169</v>
+        <v>0.01383206434547901</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3976900577545166</v>
       </c>
       <c r="V288" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.4966675043106079</v>
       </c>
       <c r="W288" t="n">
-        <v>0.06717486679553986</v>
+        <v>0.009796534664928913</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4138708114624023</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.8722153306007385</v>
       </c>
       <c r="W289" t="n">
-        <v>0.004119300283491611</v>
+        <v>0.210079699754715</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3986821174621582</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8672347068786621</v>
       </c>
       <c r="W290" t="n">
-        <v>9.732088801683858e-05</v>
+        <v>0.219541534781456</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3983268737792969</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.8845467567443848</v>
       </c>
       <c r="W291" t="n">
-        <v>0.05906124040484428</v>
+        <v>0.2364097684621811</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4204049110412598</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.4991930723190308</v>
       </c>
       <c r="W292" t="n">
-        <v>0.00209892331622541</v>
+        <v>0.006207574158906937</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3996679782867432</v>
       </c>
       <c r="V293" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8611094355583191</v>
       </c>
       <c r="W293" t="n">
-        <v>0.002389616798609495</v>
+        <v>0.2129282206296921</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3924770355224609</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.4010089933872223</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01190423686057329</v>
+        <v>7.279430428752676e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4005439281463623</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4937666356563568</v>
       </c>
       <c r="W295" t="n">
-        <v>9.384666554979049e-06</v>
+        <v>0.00869047362357378</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3914310932159424</v>
       </c>
       <c r="V296" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.4951801300048828</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1531019508838654</v>
+        <v>0.01076386217027903</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3978681564331055</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8738910555839539</v>
       </c>
       <c r="W297" t="n">
-        <v>0.03204954415559769</v>
+        <v>0.2265978008508682</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4001598358154297</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4923057556152344</v>
       </c>
       <c r="W298" t="n">
-        <v>0.01295560691505671</v>
+        <v>0.008490870706737041</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.39882493019104</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.4980242252349854</v>
       </c>
       <c r="W299" t="n">
-        <v>0.03607452288269997</v>
+        <v>0.009840500541031361</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3953099250793457</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4130378663539886</v>
       </c>
       <c r="W300" t="n">
-        <v>0.08252717554569244</v>
+        <v>0.0003142798959743232</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3971028327941895</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8740905523300171</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0612865574657917</v>
+        <v>0.2275172919034958</v>
       </c>
     </row>
     <row r="302" spans="1:23">
